--- a/extracted_excel/Nyandarua_gendered_enterprise.xlsx
+++ b/extracted_excel/Nyandarua_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Nyandarua</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
+    <t>Garden Pea– women Selection to women mainly because it involves less tedious management practices. 2.Poultry farming -less work load involved - less capital required to run the enterprise e,g simple housing - can be easily be sold and therefore providing fast household revenue</t>
   </si>
   <si>
     <t>- Through public participation - through proposals writing</t>
@@ -536,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,414 +546,276 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
